--- a/table/count_permanova.xlsx
+++ b/table/count_permanova.xlsx
@@ -390,44 +390,44 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4589251995768713</v>
+        <v>0.3783812185883571</v>
       </c>
       <c r="C2">
-        <v>0.04106381961039329</v>
+        <v>0.05841353132863106</v>
       </c>
       <c r="D2">
-        <v>1.716092978507632</v>
+        <v>2.731812415818474</v>
       </c>
       <c r="E2">
-        <v>0.04554</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>4.031365273707566</v>
+        <v>3.052045430404583</v>
       </c>
       <c r="C3">
-        <v>0.3607194735346022</v>
+        <v>0.4711670204733284</v>
       </c>
       <c r="D3">
-        <v>2.512463776372717</v>
+        <v>2.448329060401857</v>
       </c>
       <c r="E3">
-        <v>1e-005</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>6.685610938982555</v>
+        <v>3.047202934118666</v>
       </c>
       <c r="C4">
-        <v>0.5982167068550047</v>
+        <v>0.4704194481980408</v>
       </c>
     </row>
     <row r="5">
@@ -435,7 +435,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>11.17590141226699</v>
+        <v>6.477629583111605</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -491,19 +491,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.04166321318293622</v>
+        <v>0.00345141700045872</v>
       </c>
       <c r="C2">
-        <v>0.04166321318293622</v>
+        <v>0.00345141700045872</v>
       </c>
       <c r="D2">
-        <v>5.747000106313553</v>
+        <v>0.3673203149951823</v>
       </c>
       <c r="E2">
         <v>999</v>
       </c>
       <c r="F2">
-        <v>0.032</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.2247363119503231</v>
+        <v>0.2912823566962901</v>
       </c>
       <c r="C3">
-        <v>0.007249558450010424</v>
+        <v>0.009396205054719034</v>
       </c>
     </row>
   </sheetData>

--- a/table/count_permanova.xlsx
+++ b/table/count_permanova.xlsx
@@ -390,16 +390,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.3783812185883571</v>
+        <v>0.4135651482879264</v>
       </c>
       <c r="C2">
-        <v>0.05841353132863106</v>
+        <v>0.04743098286316861</v>
       </c>
       <c r="D2">
-        <v>2.731812415818474</v>
+        <v>2.138445466029865</v>
       </c>
       <c r="E2">
-        <v>0.0043</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="3">
@@ -407,13 +407,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>3.052045430404583</v>
+        <v>4.051043620098562</v>
       </c>
       <c r="C3">
-        <v>0.4711670204733284</v>
+        <v>0.4646063173318246</v>
       </c>
       <c r="D3">
-        <v>2.448329060401857</v>
+        <v>2.327440871421946</v>
       </c>
       <c r="E3">
         <v>0.0001</v>
@@ -424,10 +424,10 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>3.047202934118666</v>
+        <v>4.254695014143191</v>
       </c>
       <c r="C4">
-        <v>0.4704194481980408</v>
+        <v>0.487962699805007</v>
       </c>
     </row>
     <row r="5">
@@ -435,7 +435,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>6.477629583111605</v>
+        <v>8.719303782529678</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -491,19 +491,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.00345141700045872</v>
+        <v>0.02549484075496977</v>
       </c>
       <c r="C2">
-        <v>0.00345141700045872</v>
+        <v>0.02549484075496977</v>
       </c>
       <c r="D2">
-        <v>0.3673203149951823</v>
+        <v>3.975971176611773</v>
       </c>
       <c r="E2">
         <v>999</v>
       </c>
       <c r="F2">
-        <v>0.546</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.2912823566962901</v>
+        <v>0.1987791229607382</v>
       </c>
       <c r="C3">
-        <v>0.009396205054719034</v>
+        <v>0.00641222977292704</v>
       </c>
     </row>
   </sheetData>

--- a/table/count_permanova.xlsx
+++ b/table/count_permanova.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -361,83 +361,108 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>rownames(count_permanova)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Df</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SumOfSqs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Pr(&gt;F)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cruise</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.4135651482879264</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.04743098286316861</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.138445466029865</v>
       </c>
-      <c r="E2">
-        <v>0.0125</v>
+      <c r="F2">
+        <v>0.0127</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cruise:Station</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>4.051043620098562</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.4646063173318246</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.327440871421946</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>22</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>4.254695014143191</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.487962699805007</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>32</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>8.719303782529678</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
@@ -448,7 +473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,63 +482,78 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>rownames(count_permdisp$tab)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Df</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Sum Sq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Mean Sq</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N.Perm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Pr(&gt;F)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Groups</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.02549484075496977</v>
       </c>
       <c r="C2">
         <v>0.02549484075496977</v>
       </c>
       <c r="D2">
+        <v>0.02549484075496977</v>
+      </c>
+      <c r="E2">
         <v>3.975971176611773</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>999</v>
       </c>
-      <c r="F2">
-        <v>0.052</v>
+      <c r="G2">
+        <v>0.053</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Residuals</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>31</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.1987791229607382</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.00641222977292704</v>
       </c>
     </row>
